--- a/xnt/XNT_420015458.xlsx
+++ b/xnt/XNT_420015458.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\02_Code\02_VBA\18_Hana\Hana Code\hanaVBA\xnt\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AAB00C16-EDF2-4451-9708-8C004B89A58B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5ABDB4B3-30A2-49AA-87C7-9589A1F68B22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{94A78ED8-102E-43D4-AD8B-057275E2FD3A}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{CD067B87-0B54-403A-88F8-D77737760C91}"/>
   </bookViews>
   <sheets>
     <sheet name="xnt" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="149">
+  <si>
+    <t>Mã SP</t>
+  </si>
   <si>
     <t>Mã NL</t>
   </si>
@@ -56,478 +59,523 @@
     <t>120105150KD</t>
   </si>
   <si>
-    <t>105042696950-_x000D_
-91</t>
+    <t>105042696950(5000)_x000D_
+91(60000)</t>
   </si>
   <si>
     <t>122403055KD</t>
   </si>
   <si>
-    <t>104433281740</t>
+    <t>104433281740(50000)</t>
   </si>
   <si>
     <t>129901166KD</t>
   </si>
   <si>
-    <t>104717662340</t>
+    <t>104717662340(87500)</t>
   </si>
   <si>
     <t>129901239KD</t>
   </si>
   <si>
-    <t>105089995620</t>
+    <t>105089995620(648000)</t>
   </si>
   <si>
     <t>129901282KD</t>
   </si>
   <si>
+    <t>104717662340(3300)</t>
+  </si>
+  <si>
     <t>140100099KD</t>
   </si>
   <si>
-    <t>104395501560</t>
+    <t>104395501560(210000)</t>
   </si>
   <si>
     <t>140100103KD</t>
   </si>
   <si>
-    <t>104975501520-_x000D_
-105023106750-_x000D_
-105398614050</t>
+    <t>104975501520(5000)_x000D_
+105023106750(5000)_x000D_
+105398614050(5000)</t>
   </si>
   <si>
     <t>140300227KD</t>
   </si>
   <si>
-    <t>105042761500</t>
+    <t>105042761500(3000)</t>
   </si>
   <si>
     <t>140300386KD</t>
   </si>
   <si>
-    <t>104975528010-_x000D_
-105273020640-_x000D_
-39-_x000D_
-89-_x000D_
-91</t>
+    <t>104975528010(3000)_x000D_
+105273020640(3000)_x000D_
+39(1600)_x000D_
+89(500)_x000D_
+91(147000)</t>
   </si>
   <si>
     <t>150100568KD</t>
   </si>
   <si>
-    <t>105042766950-_x000D_
-91</t>
+    <t>105042766950(5000)_x000D_
+91(60000)</t>
   </si>
   <si>
     <t>150101745KD</t>
   </si>
   <si>
+    <t>105042766950(5000)_x000D_
+91(90000)</t>
+  </si>
+  <si>
     <t>150103278KD</t>
   </si>
   <si>
-    <t>105042775500-_x000D_
-91</t>
+    <t>105042775500(5000)_x000D_
+91(55000)</t>
   </si>
   <si>
     <t>150104400KD</t>
   </si>
   <si>
-    <t>104641513100-_x000D_
-104733278310</t>
+    <t>104641513100(10000)_x000D_
+104733278310(255000)</t>
   </si>
   <si>
     <t>150104586KD</t>
   </si>
   <si>
-    <t>105048924410</t>
+    <t>105048924410(5000)</t>
   </si>
   <si>
     <t>150104804KD</t>
   </si>
   <si>
-    <t>104671592060-_x000D_
-104771775730</t>
+    <t>104671592060(10000)_x000D_
+104771775730(5000)</t>
   </si>
   <si>
     <t>150200380KD</t>
   </si>
   <si>
-    <t>104442295050</t>
+    <t>104442295050(4000)</t>
   </si>
   <si>
     <t>150201223KD</t>
   </si>
   <si>
-    <t>105042780400-_x000D_
-91</t>
+    <t>105042780400(4000)_x000D_
+91(92000)</t>
   </si>
   <si>
     <t>150202517KD</t>
   </si>
   <si>
-    <t>18-_x000D_
-91</t>
+    <t>18(2000)_x000D_
+91(160000)</t>
   </si>
   <si>
     <t>150203096KD</t>
   </si>
   <si>
-    <t>104612230810</t>
+    <t>104612230810(4000)</t>
   </si>
   <si>
     <t>150300050KD</t>
   </si>
   <si>
+    <t>105042780400(3000)_x000D_
+91(30000)</t>
+  </si>
+  <si>
     <t>150400746KD</t>
   </si>
   <si>
-    <t>105048961950-_x000D_
-105314833740</t>
+    <t>105048961950(330)_x000D_
+105314833740(1000)</t>
   </si>
   <si>
     <t>150401106KD</t>
   </si>
   <si>
-    <t>105048961950-_x000D_
-105180915710</t>
+    <t>105048961950(330)_x000D_
+105180915710(3000)</t>
   </si>
   <si>
     <t>150700481KD</t>
   </si>
   <si>
-    <t>91</t>
+    <t>91(1000000)</t>
   </si>
   <si>
     <t>151000432KD</t>
   </si>
   <si>
-    <t>104671592060</t>
+    <t>104671592060(6000)</t>
   </si>
   <si>
     <t>151100573KD</t>
   </si>
   <si>
-    <t>105042784930-_x000D_
-91</t>
+    <t>105042784930(4000)_x000D_
+91(32000)</t>
   </si>
   <si>
     <t>151500365KD</t>
   </si>
   <si>
-    <t>104524011540-_x000D_
-104671592060</t>
+    <t>104524011540(4000)_x000D_
+104671592060(8000)</t>
   </si>
   <si>
     <t>15195281CKD</t>
   </si>
   <si>
+    <t>105042784930(200)_x000D_
+91(30508)</t>
+  </si>
+  <si>
     <t>152000016KD</t>
   </si>
   <si>
-    <t>105042784930-_x000D_
-91-_x000D_
-91</t>
+    <t>105042784930(1000)_x000D_
+91(10554)_x000D_
+91(24200)</t>
   </si>
   <si>
     <t>159900010KD</t>
   </si>
   <si>
-    <t>198</t>
+    <t>198(300000)</t>
   </si>
   <si>
     <t>159900011KD</t>
   </si>
   <si>
+    <t>198(42000)</t>
+  </si>
+  <si>
     <t>160400692KD</t>
   </si>
   <si>
-    <t>105042786330-_x000D_
-105398614050-_x000D_
-91</t>
+    <t>105042786330(1600)_x000D_
+105398614050(1200)_x000D_
+91(149600)</t>
   </si>
   <si>
     <t>160600290KD</t>
   </si>
   <si>
-    <t>105066243700-_x000D_
-105415540050-_x000D_
-91</t>
+    <t>105066243700(200)_x000D_
+105415540050(555)_x000D_
+91(39165)</t>
   </si>
   <si>
     <t>16162560AKD</t>
   </si>
   <si>
-    <t>105042804420-_x000D_
-105415540050-_x000D_
-91</t>
+    <t>105042804420(200)_x000D_
+105415540050(95)_x000D_
+91(31476)</t>
   </si>
   <si>
     <t>16164426CKD</t>
   </si>
   <si>
-    <t>105042804420-_x000D_
-105272986600-_x000D_
-91</t>
+    <t>105042804420(200)_x000D_
+105272986600(99)_x000D_
+91(20000)</t>
   </si>
   <si>
     <t>16165785AKD</t>
   </si>
   <si>
-    <t>105042804420-_x000D_
-91</t>
+    <t>105042804420(300)_x000D_
+91(28848)</t>
   </si>
   <si>
     <t>16210097AKD</t>
   </si>
   <si>
-    <t>105042805930-_x000D_
-91</t>
+    <t>105042805930(300)_x000D_
+91(54435)</t>
   </si>
   <si>
     <t>162302185KD</t>
   </si>
   <si>
-    <t>7738</t>
+    <t>7738(100)</t>
   </si>
   <si>
     <t>162302186KD</t>
   </si>
   <si>
-    <t>2007-_x000D_
-470</t>
+    <t>2007(50)_x000D_
+470(150)</t>
   </si>
   <si>
     <t>162302190KD</t>
   </si>
   <si>
-    <t>2007</t>
+    <t>2007(500)</t>
   </si>
   <si>
     <t>162302300KD</t>
   </si>
   <si>
-    <t>201-_x000D_
-519-_x000D_
-834</t>
+    <t>201(16)_x000D_
+519(50)_x000D_
+834(700)</t>
   </si>
   <si>
     <t>162302306KD</t>
   </si>
   <si>
+    <t>2007(100)</t>
+  </si>
+  <si>
     <t>162302307KD</t>
   </si>
   <si>
-    <t>194</t>
+    <t>194(10000)</t>
   </si>
   <si>
     <t>162302329KD</t>
   </si>
   <si>
-    <t>194-_x000D_
-7736</t>
+    <t>194(3)_x000D_
+7736(550)</t>
   </si>
   <si>
     <t>162302664KD</t>
   </si>
   <si>
-    <t>606-_x000D_
-89</t>
+    <t>606(50)_x000D_
+89(235)</t>
   </si>
   <si>
     <t>16231001AKD</t>
   </si>
   <si>
-    <t>207-_x000D_
-229-_x000D_
-259</t>
+    <t>207(3000)_x000D_
+229(1000)_x000D_
+259(8600)</t>
   </si>
   <si>
     <t>16231003AKD</t>
   </si>
   <si>
-    <t>194-_x000D_
-258</t>
-  </si>
-  <si>
-    <t>104846664750</t>
-  </si>
-  <si>
-    <t>105398635860</t>
-  </si>
-  <si>
-    <t>105398668910</t>
-  </si>
-  <si>
-    <t>104821041620-_x000D_
-104898139620-_x000D_
-104948133140-_x000D_
-104966717330-_x000D_
-105000449850-_x000D_
-105039560360</t>
-  </si>
-  <si>
-    <t>104768442220-_x000D_
-104898139620-_x000D_
-104966717330</t>
-  </si>
-  <si>
-    <t>105362132040-_x000D_
-105404921900</t>
-  </si>
-  <si>
-    <t>104873912730</t>
-  </si>
-  <si>
-    <t>104873912730-_x000D_
-104905533830-_x000D_
-104917292540-_x000D_
-104936777040-_x000D_
-104960654630-_x000D_
-104966719100-_x000D_
-104984517520</t>
-  </si>
-  <si>
-    <t>104999387620-_x000D_
-105010587250</t>
-  </si>
-  <si>
-    <t>104891827500</t>
-  </si>
-  <si>
-    <t>104621913540</t>
-  </si>
-  <si>
-    <t>105115437560</t>
-  </si>
-  <si>
-    <t>105398672520</t>
-  </si>
-  <si>
-    <t>105190174350</t>
-  </si>
-  <si>
-    <t>105197767510</t>
-  </si>
-  <si>
-    <t>104674594030-_x000D_
-104733393700-_x000D_
-105194514500</t>
-  </si>
-  <si>
-    <t>104658161420-_x000D_
-104789265710-_x000D_
-105102692920-_x000D_
-105398672520</t>
-  </si>
-  <si>
-    <t>105317145030-_x000D_
-105398672520</t>
-  </si>
-  <si>
-    <t>104667406800-_x000D_
-105404929820</t>
-  </si>
-  <si>
-    <t>105238831830-_x000D_
-105317145030</t>
-  </si>
-  <si>
-    <t>105404929820</t>
-  </si>
-  <si>
-    <t>104626403450-_x000D_
-104658032510-_x000D_
-104846747240</t>
-  </si>
-  <si>
-    <t>104626403450-_x000D_
-104846747240</t>
-  </si>
-  <si>
-    <t>104626403450-_x000D_
-105083663050-_x000D_
-105102845740-_x000D_
-105108577450-_x000D_
-105119064960</t>
-  </si>
-  <si>
-    <t>105398686300</t>
-  </si>
-  <si>
-    <t>104626404630</t>
-  </si>
-  <si>
-    <t>104626404630-_x000D_
-104658032510</t>
-  </si>
-  <si>
-    <t>105398689650</t>
-  </si>
-  <si>
-    <t>105398689650-_x000D_
-105404933910</t>
-  </si>
-  <si>
-    <t>104626404630-_x000D_
-104658032510-_x000D_
-104907236820-_x000D_
-104984560660</t>
-  </si>
-  <si>
-    <t>104626404630-_x000D_
-104658056530-_x000D_
-104674594400-_x000D_
-104786426950-_x000D_
-104966724550</t>
-  </si>
-  <si>
-    <t>104674594400-_x000D_
-104733411160-_x000D_
-105083622560</t>
-  </si>
-  <si>
-    <t>104928309730</t>
-  </si>
-  <si>
-    <t>105211762350-_x000D_
-105255192120-_x000D_
-105317148860-_x000D_
-105369729620-_x000D_
-105379313100-_x000D_
-105398442660-_x000D_
-105398693630</t>
-  </si>
-  <si>
-    <t>104626409420-_x000D_
-104658056530-_x000D_
-104674594730</t>
-  </si>
-  <si>
-    <t>105398693630</t>
-  </si>
-  <si>
-    <t>105317148860-_x000D_
-105398693630</t>
-  </si>
-  <si>
-    <t>105398693630-_x000D_
-105404933910</t>
-  </si>
-  <si>
-    <t>105083666660-_x000D_
-105398693630</t>
-  </si>
-  <si>
-    <t>105398703060</t>
-  </si>
-  <si>
-    <t>105398703060-_x000D_
-105404959330</t>
+    <t>194(85)_x000D_
+258(13300)</t>
+  </si>
+  <si>
+    <t>104846664750(15000)</t>
+  </si>
+  <si>
+    <t>105398635860(15000)</t>
+  </si>
+  <si>
+    <t>105398668910(20000)</t>
+  </si>
+  <si>
+    <t>104821041620(10000)_x000D_
+104898139620(5000)_x000D_
+104948133140(5000)_x000D_
+104966717330(5000)_x000D_
+105000449850(10000)_x000D_
+105039560360(5000)</t>
+  </si>
+  <si>
+    <t>104768442220(160000)_x000D_
+104898139620(50000)_x000D_
+104966717330(200000)</t>
+  </si>
+  <si>
+    <t>105362132040(5000)_x000D_
+105404921900(50000)</t>
+  </si>
+  <si>
+    <t>104873912730(145000)</t>
+  </si>
+  <si>
+    <t>104873912730(20000)_x000D_
+104905533830(5000)_x000D_
+104917292540(15000)_x000D_
+104936777040(10000)_x000D_
+104960654630(15000)_x000D_
+104966719100(5000)_x000D_
+104984517520(15000)</t>
+  </si>
+  <si>
+    <t>104999387620(5000)_x000D_
+105010587250(30000)</t>
+  </si>
+  <si>
+    <t>104891827500(36000)</t>
+  </si>
+  <si>
+    <t>104621913540(52000)</t>
+  </si>
+  <si>
+    <t>105115437560(60000)</t>
+  </si>
+  <si>
+    <t>105398672520(156000)</t>
+  </si>
+  <si>
+    <t>105190174350(27000)</t>
+  </si>
+  <si>
+    <t>105398672520(42000)</t>
+  </si>
+  <si>
+    <t>105398672520(15000)</t>
+  </si>
+  <si>
+    <t>105197767510(40000)</t>
+  </si>
+  <si>
+    <t>104674594030(10000)_x000D_
+104733393700(10000)_x000D_
+105194514500(5000)</t>
+  </si>
+  <si>
+    <t>104658161420(5000)_x000D_
+104789265710(5000)_x000D_
+105102692920(10000)_x000D_
+105398672520(30000)</t>
+  </si>
+  <si>
+    <t>105317145030(80000)_x000D_
+105398672520(170000)</t>
+  </si>
+  <si>
+    <t>104667406800(5000)_x000D_
+105404929820(150000)</t>
+  </si>
+  <si>
+    <t>105238831830(5000)_x000D_
+105317145030(10000)</t>
+  </si>
+  <si>
+    <t>105404929820(75000)</t>
+  </si>
+  <si>
+    <t>104626403450(5000)_x000D_
+104658032510(5000)_x000D_
+104846747240(20000)</t>
+  </si>
+  <si>
+    <t>104626403450(5000)_x000D_
+104846747240(40000)</t>
+  </si>
+  <si>
+    <t>104626403450(5000)_x000D_
+105083663050(20000)_x000D_
+105102845740(10000)_x000D_
+105108577450(20000)_x000D_
+105119064960(80000)</t>
+  </si>
+  <si>
+    <t>105398686300(20000)</t>
+  </si>
+  <si>
+    <t>105398686300(16000)</t>
+  </si>
+  <si>
+    <t>104626404630(12000)</t>
+  </si>
+  <si>
+    <t>104626404630(12000)_x000D_
+104658032510(12000)</t>
+  </si>
+  <si>
+    <t>105398689650(16000)</t>
+  </si>
+  <si>
+    <t>105398689650(2498)_x000D_
+105404933910(36000)</t>
+  </si>
+  <si>
+    <t>105398689650(14000)</t>
+  </si>
+  <si>
+    <t>104626404630(4000)_x000D_
+104658032510(8000)_x000D_
+104907236820(36000)_x000D_
+104984560660(1000000)</t>
+  </si>
+  <si>
+    <t>104626404630(8000)_x000D_
+104658056530(4000)_x000D_
+104674594400(40000)_x000D_
+104786426950(12000)_x000D_
+104966724550(40000)</t>
+  </si>
+  <si>
+    <t>104674594400(8000)_x000D_
+104733411160(4000)_x000D_
+105083622560(80000)</t>
+  </si>
+  <si>
+    <t>104928309730(118000)</t>
+  </si>
+  <si>
+    <t>105398689650(15000)</t>
+  </si>
+  <si>
+    <t>105211762350(9000)_x000D_
+105255192120(3000)_x000D_
+105317148860(3000)_x000D_
+105369729620(9000)_x000D_
+105379313100(6000)_x000D_
+105398442660(3000)_x000D_
+105398693630(42000)</t>
+  </si>
+  <si>
+    <t>104626409420(6000)_x000D_
+104658056530(3000)_x000D_
+104674594730(75000)</t>
+  </si>
+  <si>
+    <t>105398693630(14000)</t>
+  </si>
+  <si>
+    <t>105398693630(26995)</t>
+  </si>
+  <si>
+    <t>105317148860(3000)_x000D_
+105398693630(15000)</t>
+  </si>
+  <si>
+    <t>105398693630(2500)_x000D_
+105404933910(62500)</t>
+  </si>
+  <si>
+    <t>105398693630(15000)</t>
+  </si>
+  <si>
+    <t>105083666660(5993)_x000D_
+105398693630(9000)</t>
+  </si>
+  <si>
+    <t>105398693630(16000)</t>
+  </si>
+  <si>
+    <t>105398703060(10000)</t>
+  </si>
+  <si>
+    <t>105398703060(19000)_x000D_
+105404959330(40000)</t>
   </si>
   <si>
     <t>16161348A</t>
   </si>
   <si>
-    <t>105398707520</t>
+    <t>105398707520(13205)</t>
   </si>
 </sst>
 </file>
@@ -564,7 +612,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -578,6 +626,19 @@
       </left>
       <right style="thin">
         <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
       </right>
       <top style="thin">
         <color auto="1"/>
@@ -596,19 +657,19 @@
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="표준 2" xfId="1" xr:uid="{9441B232-A71B-4F91-986F-9AA8DD69719A}"/>
+    <cellStyle name="표준 2" xfId="1" xr:uid="{76A43039-F861-4E9F-A2E0-A392B8D57902}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -939,7 +1000,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A91C094F-70B1-440F-B001-5AA263021C2E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D09A2EF0-4116-47D8-9368-C2C3E21EDE72}">
   <sheetPr codeName="Sheet8"/>
   <dimension ref="A1:F100"/>
   <sheetViews>
@@ -958,32 +1019,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1">
-        <v>420013837</v>
+      <c r="A1" s="1" t="s">
+        <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A2" s="2"/>
+      <c r="A2" s="2">
+        <v>420015458</v>
+      </c>
       <c r="B2" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D2" s="2">
         <v>24004.60899999996</v>
@@ -996,12 +1059,14 @@
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="2"/>
+      <c r="A3" s="2">
+        <v>420015458</v>
+      </c>
       <c r="B3" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D3" s="2">
         <v>3159.9999999999959</v>
@@ -1014,12 +1079,14 @@
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="2"/>
+      <c r="A4" s="2">
+        <v>420015458</v>
+      </c>
       <c r="B4" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D4" s="2">
         <v>45600</v>
@@ -1032,12 +1099,14 @@
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="2"/>
+      <c r="A5" s="2">
+        <v>420015458</v>
+      </c>
       <c r="B5" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D5" s="2">
         <v>8400</v>
@@ -1050,12 +1119,14 @@
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="2"/>
+      <c r="A6" s="2">
+        <v>420015458</v>
+      </c>
       <c r="B6" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D6" s="2">
         <v>1200</v>
@@ -1068,12 +1139,14 @@
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="2"/>
+      <c r="A7" s="2">
+        <v>420015458</v>
+      </c>
       <c r="B7" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D7" s="2">
         <v>500.0000000000004</v>
@@ -1086,12 +1159,14 @@
       </c>
     </row>
     <row r="8" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A8" s="2"/>
+      <c r="A8" s="2">
+        <v>420015458</v>
+      </c>
       <c r="B8" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D8" s="2">
         <v>12000</v>
@@ -1104,12 +1179,14 @@
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="2"/>
+      <c r="A9" s="2">
+        <v>420015458</v>
+      </c>
       <c r="B9" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D9" s="2">
         <v>984.99999999999955</v>
@@ -1122,12 +1199,14 @@
       </c>
     </row>
     <row r="10" spans="1:6" ht="75" x14ac:dyDescent="0.25">
-      <c r="A10" s="2"/>
+      <c r="A10" s="2">
+        <v>420015458</v>
+      </c>
       <c r="B10" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D10" s="2">
         <v>72000</v>
@@ -1140,12 +1219,14 @@
       </c>
     </row>
     <row r="11" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11" s="2"/>
+      <c r="A11" s="2">
+        <v>420015458</v>
+      </c>
       <c r="B11" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D11" s="2">
         <v>24000</v>
@@ -1158,12 +1239,14 @@
       </c>
     </row>
     <row r="12" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A12" s="2"/>
+      <c r="A12" s="2">
+        <v>420015458</v>
+      </c>
       <c r="B12" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="D12" s="2">
         <v>36000</v>
@@ -1176,12 +1259,14 @@
       </c>
     </row>
     <row r="13" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A13" s="2"/>
+      <c r="A13" s="2">
+        <v>420015458</v>
+      </c>
       <c r="B13" s="2" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D13" s="2">
         <v>24000</v>
@@ -1194,12 +1279,14 @@
       </c>
     </row>
     <row r="14" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A14" s="2"/>
+      <c r="A14" s="2">
+        <v>420015458</v>
+      </c>
       <c r="B14" s="2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D14" s="2">
         <v>60000</v>
@@ -1212,12 +1299,14 @@
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="2"/>
+      <c r="A15" s="2">
+        <v>420015458</v>
+      </c>
       <c r="B15" s="2" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D15" s="2">
         <v>4449.2309999999998</v>
@@ -1230,12 +1319,14 @@
       </c>
     </row>
     <row r="16" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A16" s="2"/>
+      <c r="A16" s="2">
+        <v>420015458</v>
+      </c>
       <c r="B16" s="2" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="D16" s="2">
         <v>12000</v>
@@ -1248,12 +1339,14 @@
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="2"/>
+      <c r="A17" s="2">
+        <v>420015458</v>
+      </c>
       <c r="B17" s="2" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="D17" s="2">
         <v>1636.5170000000039</v>
@@ -1266,12 +1359,14 @@
       </c>
     </row>
     <row r="18" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A18" s="2"/>
+      <c r="A18" s="2">
+        <v>420015458</v>
+      </c>
       <c r="B18" s="2" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="D18" s="2">
         <v>36000</v>
@@ -1284,12 +1379,14 @@
       </c>
     </row>
     <row r="19" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A19" s="2"/>
+      <c r="A19" s="2">
+        <v>420015458</v>
+      </c>
       <c r="B19" s="2" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D19" s="2">
         <v>12000</v>
@@ -1302,12 +1399,14 @@
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="2"/>
+      <c r="A20" s="2">
+        <v>420015458</v>
+      </c>
       <c r="B20" s="2" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="D20" s="2">
         <v>3159.9999999999959</v>
@@ -1320,12 +1419,14 @@
       </c>
     </row>
     <row r="21" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A21" s="2"/>
+      <c r="A21" s="2">
+        <v>420015458</v>
+      </c>
       <c r="B21" s="2" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="D21" s="2">
         <v>12000</v>
@@ -1338,12 +1439,14 @@
       </c>
     </row>
     <row r="22" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A22" s="2"/>
+      <c r="A22" s="2">
+        <v>420015458</v>
+      </c>
       <c r="B22" s="2" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="D22" s="2">
         <v>795</v>
@@ -1360,10 +1463,10 @@
         <v>420015458</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="D23" s="2">
         <v>1785</v>
@@ -1380,10 +1483,10 @@
         <v>420015458</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="D24" s="2">
         <v>48553.83999999996</v>
@@ -1400,10 +1503,10 @@
         <v>420015458</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="D25" s="2">
         <v>2999.0000000000041</v>
@@ -1420,10 +1523,10 @@
         <v>420015458</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="D26" s="2">
         <v>12000</v>
@@ -1440,10 +1543,10 @@
         <v>420015458</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="D27" s="2">
         <v>12000</v>
@@ -1460,10 +1563,10 @@
         <v>420015458</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="D28" s="2">
         <v>12000</v>
@@ -1480,10 +1583,10 @@
         <v>420015458</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="D29" s="2">
         <v>26000.00000000004</v>
@@ -1500,10 +1603,10 @@
         <v>420015458</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="D30" s="2">
         <v>38400</v>
@@ -1520,10 +1623,10 @@
         <v>420015458</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="D31" s="2">
         <v>24000</v>
@@ -1540,10 +1643,10 @@
         <v>420015458</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="D32" s="2">
         <v>72000</v>
@@ -1560,10 +1663,10 @@
         <v>420015458</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="D33" s="2">
         <v>12000</v>
@@ -1580,10 +1683,10 @@
         <v>420015458</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="D34" s="2">
         <v>12000</v>
@@ -1600,10 +1703,10 @@
         <v>420015458</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="D35" s="2">
         <v>12000</v>
@@ -1620,10 +1723,10 @@
         <v>420015458</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="D36" s="2">
         <v>12000</v>
@@ -1640,10 +1743,10 @@
         <v>420015458</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="D37" s="2">
         <v>12000</v>
@@ -1660,10 +1763,10 @@
         <v>420015458</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="D38" s="2">
         <v>24</v>
@@ -1680,10 +1783,10 @@
         <v>420015458</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="D39" s="2">
         <v>84</v>
@@ -1700,10 +1803,10 @@
         <v>420015458</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="D40" s="2">
         <v>168</v>
@@ -1720,10 +1823,10 @@
         <v>420015458</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="D41" s="2">
         <v>408.00000000000006</v>
@@ -1740,10 +1843,10 @@
         <v>420015458</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="D42" s="2">
         <v>12</v>
@@ -1760,10 +1863,10 @@
         <v>420015458</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="D43" s="2">
         <v>1608</v>
@@ -1780,10 +1883,10 @@
         <v>420015458</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="D44" s="2">
         <v>408.00000000000006</v>
@@ -1800,10 +1903,10 @@
         <v>420015458</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="D45" s="2">
         <v>804</v>
@@ -1820,10 +1923,10 @@
         <v>420015458</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="D46" s="2">
         <v>12092.31999999996</v>
@@ -1840,10 +1943,10 @@
         <v>420015458</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="D47" s="2">
         <v>12000</v>
@@ -1863,7 +1966,7 @@
         <v>120105243</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="D48" s="2">
         <v>7550.7689999999993</v>
@@ -1883,7 +1986,7 @@
         <v>121003694</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="D49" s="2">
         <v>12004.60899999996</v>
@@ -1903,7 +2006,7 @@
         <v>122403055</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="D50" s="2">
         <v>8840.0000000000036</v>
@@ -1923,7 +2026,7 @@
         <v>140100099</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="D51" s="2">
         <v>35499.999999999956</v>
@@ -1943,7 +2046,7 @@
         <v>140100100</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="D52" s="2">
         <v>324004.60899999959</v>
@@ -1963,7 +2066,7 @@
         <v>140100104</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="D53" s="2">
         <v>24000</v>
@@ -1983,7 +2086,7 @@
         <v>140100107</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="D54" s="2">
         <v>12009.231</v>
@@ -2003,7 +2106,7 @@
         <v>140100112</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="D55" s="2">
         <v>72000</v>
@@ -2023,7 +2126,7 @@
         <v>140100125</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="D56" s="2">
         <v>24000</v>
@@ -2043,7 +2146,7 @@
         <v>140200097</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="D57" s="2">
         <v>36000</v>
@@ -2063,7 +2166,7 @@
         <v>140200149</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="D58" s="2">
         <v>12000</v>
@@ -2083,7 +2186,7 @@
         <v>140200207</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="D59" s="2">
         <v>36000</v>
@@ -2103,7 +2206,7 @@
         <v>140300057</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="D60" s="2">
         <v>132032.31800000041</v>
@@ -2123,7 +2226,7 @@
         <v>140300227</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="D61" s="2">
         <v>11015.000000000005</v>
@@ -2143,7 +2246,7 @@
         <v>140300242</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>103</v>
+        <v>112</v>
       </c>
       <c r="D62" s="2">
         <v>36420</v>
@@ -2163,7 +2266,7 @@
         <v>140300470</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>103</v>
+        <v>113</v>
       </c>
       <c r="D63" s="2">
         <v>12000</v>
@@ -2183,7 +2286,7 @@
         <v>150100047</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>105</v>
+        <v>114</v>
       </c>
       <c r="D64" s="2">
         <v>36000</v>
@@ -2203,7 +2306,7 @@
         <v>150100078</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="D65" s="2">
         <v>24004.60899999996</v>
@@ -2223,7 +2326,7 @@
         <v>150100245</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>107</v>
+        <v>116</v>
       </c>
       <c r="D66" s="2">
         <v>24000</v>
@@ -2243,7 +2346,7 @@
         <v>150100317</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>103</v>
+        <v>113</v>
       </c>
       <c r="D67" s="2">
         <v>12000</v>
@@ -2263,7 +2366,7 @@
         <v>150101110</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>108</v>
+        <v>117</v>
       </c>
       <c r="D68" s="2">
         <v>144000</v>
@@ -2283,7 +2386,7 @@
         <v>150101631</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>103</v>
+        <v>113</v>
       </c>
       <c r="D69" s="2">
         <v>12000</v>
@@ -2303,7 +2406,7 @@
         <v>150102446</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>109</v>
+        <v>118</v>
       </c>
       <c r="D70" s="2">
         <v>72784.608999999968</v>
@@ -2323,7 +2426,7 @@
         <v>150102451</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>110</v>
+        <v>119</v>
       </c>
       <c r="D71" s="2">
         <v>12000</v>
@@ -2343,7 +2446,7 @@
         <v>150102534</v>
       </c>
       <c r="C72" s="3" t="s">
-        <v>111</v>
+        <v>120</v>
       </c>
       <c r="D72" s="2">
         <v>36004.60899999996</v>
@@ -2363,7 +2466,7 @@
         <v>150102585</v>
       </c>
       <c r="C73" s="3" t="s">
-        <v>103</v>
+        <v>113</v>
       </c>
       <c r="D73" s="2">
         <v>12000</v>
@@ -2383,7 +2486,7 @@
         <v>150104284</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>112</v>
+        <v>121</v>
       </c>
       <c r="D74" s="2">
         <v>12000</v>
@@ -2403,7 +2506,7 @@
         <v>150104317</v>
       </c>
       <c r="C75" s="3" t="s">
-        <v>113</v>
+        <v>122</v>
       </c>
       <c r="D75" s="2">
         <v>12000</v>
@@ -2423,7 +2526,7 @@
         <v>150104318</v>
       </c>
       <c r="C76" s="3" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="D76" s="2">
         <v>60000</v>
@@ -2443,7 +2546,7 @@
         <v>150104598</v>
       </c>
       <c r="C77" s="3" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="D77" s="2">
         <v>12000</v>
@@ -2463,7 +2566,7 @@
         <v>150104988</v>
       </c>
       <c r="C78" s="3" t="s">
-        <v>115</v>
+        <v>125</v>
       </c>
       <c r="D78" s="2">
         <v>12004.60899999996</v>
@@ -2483,7 +2586,7 @@
         <v>150200240</v>
       </c>
       <c r="C79" s="3" t="s">
-        <v>116</v>
+        <v>126</v>
       </c>
       <c r="D79" s="2">
         <v>12000</v>
@@ -2503,7 +2606,7 @@
         <v>150200380</v>
       </c>
       <c r="C80" s="3" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="D80" s="2">
         <v>22363.48299999996</v>
@@ -2523,7 +2626,7 @@
         <v>150201747</v>
       </c>
       <c r="C81" s="3" t="s">
-        <v>118</v>
+        <v>128</v>
       </c>
       <c r="D81" s="2">
         <v>12000</v>
@@ -2543,7 +2646,7 @@
         <v>150202177</v>
       </c>
       <c r="C82" s="3" t="s">
-        <v>119</v>
+        <v>129</v>
       </c>
       <c r="D82" s="2">
         <v>24000</v>
@@ -2563,7 +2666,7 @@
         <v>150202202</v>
       </c>
       <c r="C83" s="3" t="s">
-        <v>118</v>
+        <v>130</v>
       </c>
       <c r="D83" s="2">
         <v>12000</v>
@@ -2583,7 +2686,7 @@
         <v>150202765</v>
       </c>
       <c r="C84" s="3" t="s">
-        <v>120</v>
+        <v>131</v>
       </c>
       <c r="D84" s="2">
         <v>145569.231</v>
@@ -2603,7 +2706,7 @@
         <v>150202766</v>
       </c>
       <c r="C85" s="3" t="s">
-        <v>121</v>
+        <v>132</v>
       </c>
       <c r="D85" s="2">
         <v>72000</v>
@@ -2623,7 +2726,7 @@
         <v>150203096</v>
       </c>
       <c r="C86" s="3" t="s">
-        <v>122</v>
+        <v>133</v>
       </c>
       <c r="D86" s="2">
         <v>80840.000000000044</v>
@@ -2643,7 +2746,7 @@
         <v>150203267</v>
       </c>
       <c r="C87" s="3" t="s">
-        <v>123</v>
+        <v>134</v>
       </c>
       <c r="D87" s="2">
         <v>48000</v>
@@ -2663,7 +2766,7 @@
         <v>150301042</v>
       </c>
       <c r="C88" s="3" t="s">
-        <v>118</v>
+        <v>135</v>
       </c>
       <c r="D88" s="2">
         <v>12000</v>
@@ -2683,7 +2786,7 @@
         <v>150400039</v>
       </c>
       <c r="C89" s="3" t="s">
-        <v>124</v>
+        <v>136</v>
       </c>
       <c r="D89" s="2">
         <v>36000</v>
@@ -2703,7 +2806,7 @@
         <v>150400673</v>
       </c>
       <c r="C90" s="3" t="s">
-        <v>125</v>
+        <v>137</v>
       </c>
       <c r="D90" s="2">
         <v>12000</v>
@@ -2723,7 +2826,7 @@
         <v>150400746</v>
       </c>
       <c r="C91" s="3" t="s">
-        <v>126</v>
+        <v>138</v>
       </c>
       <c r="D91" s="2">
         <v>11205</v>
@@ -2743,7 +2846,7 @@
         <v>150401106</v>
       </c>
       <c r="C92" s="3" t="s">
-        <v>126</v>
+        <v>139</v>
       </c>
       <c r="D92" s="2">
         <v>22215</v>
@@ -2763,7 +2866,7 @@
         <v>150401133</v>
       </c>
       <c r="C93" s="3" t="s">
-        <v>127</v>
+        <v>140</v>
       </c>
       <c r="D93" s="2">
         <v>12000</v>
@@ -2783,7 +2886,7 @@
         <v>151000066</v>
       </c>
       <c r="C94" s="3" t="s">
-        <v>128</v>
+        <v>141</v>
       </c>
       <c r="D94" s="2">
         <v>36004.60899999996</v>
@@ -2803,7 +2906,7 @@
         <v>151000171</v>
       </c>
       <c r="C95" s="3" t="s">
-        <v>126</v>
+        <v>142</v>
       </c>
       <c r="D95" s="2">
         <v>12184.60899999996</v>
@@ -2823,7 +2926,7 @@
         <v>151000432</v>
       </c>
       <c r="C96" s="3" t="s">
-        <v>129</v>
+        <v>143</v>
       </c>
       <c r="D96" s="2">
         <v>9000.9999999999964</v>
@@ -2843,7 +2946,7 @@
         <v>151000721</v>
       </c>
       <c r="C97" s="3" t="s">
-        <v>126</v>
+        <v>144</v>
       </c>
       <c r="D97" s="2">
         <v>12000</v>
@@ -2863,7 +2966,7 @@
         <v>152000016</v>
       </c>
       <c r="C98" s="3" t="s">
-        <v>130</v>
+        <v>145</v>
       </c>
       <c r="D98" s="2">
         <v>9999.9999999999964</v>
@@ -2883,7 +2986,7 @@
         <v>152000823</v>
       </c>
       <c r="C99" s="3" t="s">
-        <v>131</v>
+        <v>146</v>
       </c>
       <c r="D99" s="2">
         <v>36000</v>
@@ -2900,10 +3003,10 @@
         <v>420015458</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>132</v>
+        <v>147</v>
       </c>
       <c r="C100" s="3" t="s">
-        <v>133</v>
+        <v>148</v>
       </c>
       <c r="D100" s="2">
         <v>12000</v>
